--- a/biology/Écologie/Programme_interdisciplinaire_de_recherches_sur_l'environnement/Programme_interdisciplinaire_de_recherches_sur_l'environnement.xlsx
+++ b/biology/Écologie/Programme_interdisciplinaire_de_recherches_sur_l'environnement/Programme_interdisciplinaire_de_recherches_sur_l'environnement.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Programme_interdisciplinaire_de_recherches_sur_l%27environnement</t>
+          <t>Programme_interdisciplinaire_de_recherches_sur_l'environnement</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Programme Interdisciplinaire de Recherches sur l'Environnement (PIREN) est un programme de recherche français sur les problèmes d'environnement et d'écologie, lancé par le CNRS et associant diverses institutions et disciplines.
 Niveau national, créé en 1990.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Programme_interdisciplinaire_de_recherches_sur_l%27environnement</t>
+          <t>Programme_interdisciplinaire_de_recherches_sur_l'environnement</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Le PIREN-Seine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le PIREN-Seine est un groupement de recherche dont l'objectif est de développer, à partir de mesures de terrain et de modélisations, une vision d'ensemble du fonctionnement du système formé par le réseau hydrographique de la Seine, son bassin versant et la société humaine qui l'investit.
 Le bassin de la Seine, 12 % du territoire national, supporte le quart de la population de la France, un tiers de sa production agricole et industrielle, et plus de la moitié de son trafic fluvial. 
